--- a/ArtByBlindBurndown.xlsx
+++ b/ArtByBlindBurndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bleandd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walrobc\Desktop\fourth_semester\Advanced_topics\final_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>PERIODS</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Burndown Chart</t>
+  </si>
+  <si>
+    <t>Rob</t>
   </si>
 </sst>
 </file>
@@ -633,6 +636,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -680,9 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1095,8 +1098,8 @@
   </sheetPr>
   <dimension ref="A1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1120,14 +1123,14 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1135,69 +1138,69 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="35"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="1:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1224,13 +1227,13 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1538,7 +1541,9 @@
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
@@ -1557,7 +1562,9 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
@@ -1576,7 +1583,9 @@
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>

--- a/ArtByBlindBurndown.xlsx
+++ b/ArtByBlindBurndown.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walrobc\Desktop\fourth_semester\Advanced_topics\final_project\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stmisaa\Desktop\ArtByBlind\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>PERIODS</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Rob</t>
+  </si>
+  <si>
+    <t>Isaac</t>
   </si>
 </sst>
 </file>
@@ -1098,20 +1101,20 @@
   </sheetPr>
   <dimension ref="A1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
+    <col min="1" max="1" width="41.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1125,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
     </row>
-    <row r="3" spans="1:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1229,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="23"/>
       <c r="C4" s="30"/>
@@ -1415,7 +1418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
@@ -1657,11 +1660,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -1676,11 +1681,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
@@ -1695,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1714,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -1733,11 +1740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="7">
         <v>2</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1771,11 +1780,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="7">
         <v>2</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1811,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -1832,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1864,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
@@ -1958,37 +1969,37 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>

--- a/ArtByBlindBurndown.xlsx
+++ b/ArtByBlindBurndown.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stmisaa\Desktop\ArtByBlind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerale\Documents\Semester4\PAULA-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>PERIODS</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Isaac</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Dakota</t>
   </si>
 </sst>
 </file>
@@ -1101,20 +1107,20 @@
   </sheetPr>
   <dimension ref="A1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="1" max="1" width="41.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1131,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
@@ -1184,7 +1190,7 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
     </row>
-    <row r="3" spans="1:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1235,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="23"/>
       <c r="C4" s="30"/>
@@ -1418,7 +1424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1483,11 +1489,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
@@ -1502,11 +1510,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
@@ -1521,11 +1531,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
@@ -1603,11 +1615,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -1622,11 +1636,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
@@ -1641,11 +1657,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1681,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1721,11 +1739,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -1761,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1780,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -1885,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1926,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1947,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
@@ -1969,37 +1989,37 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>

--- a/ArtByBlindBurndown.xlsx
+++ b/ArtByBlindBurndown.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>PERIODS</t>
   </si>
@@ -1107,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1724,7 +1724,9 @@
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
@@ -1785,7 +1787,9 @@
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
